--- a/PercentChangeOverall.xlsx
+++ b/PercentChangeOverall.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmachin\Desktop\Incidence_Mortality_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scanner\Desktop\Git\proptest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Matematico" sheetId="1" r:id="rId1"/>
     <sheet name="Graficas #Muertes" sheetId="2" r:id="rId2"/>
     <sheet name="PercentChangeOverall" sheetId="3" r:id="rId3"/>
+    <sheet name="PercentChangeMSM&amp;IDU" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
   <si>
     <t>Transmission category</t>
   </si>
@@ -184,22 +185,22 @@
     <t>Mode of Transmission</t>
   </si>
   <si>
-    <t>msm</t>
-  </si>
-  <si>
-    <t>idu</t>
-  </si>
-  <si>
-    <t>num.persons</t>
-  </si>
-  <si>
-    <t>num.deaths</t>
-  </si>
-  <si>
     <t>Num. deahs year x-1</t>
   </si>
   <si>
     <t>Absolute differences</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>new.cases</t>
+  </si>
+  <si>
+    <t>New Cases of HIV by MSM &amp; IDU</t>
+  </si>
+  <si>
+    <t>Number of Deaths of HIV by MSM &amp; IDU</t>
   </si>
 </sst>
 </file>
@@ -279,12 +280,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -423,7 +430,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -460,15 +467,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -490,6 +489,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,7 +507,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,11 +637,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graficas #Muertes'!$A$1:$B$1</c:f>
+              <c:f>'Graficas #Muertes'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Overall</c:v>
+                  <c:v>Deaths</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -680,45 +705,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graficas #Muertes'!$C$3:$C$14</c:f>
+              <c:f>'Graficas #Muertes'!$B$3:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.025873221216042</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.142302716688228</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.983182406209572</c:v>
+                  <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9741267787839583</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5899094437257428</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8615782664941793</c:v>
+                  <c:v>685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7063389391979307</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4902975420439848</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4385510996119022</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1966364812419146</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1836998706338937</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4075032341526521</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,11 +759,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="348502704"/>
-        <c:axId val="348503096"/>
+        <c:axId val="207389624"/>
+        <c:axId val="207390008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348502704"/>
+        <c:axId val="207389624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348503096"/>
+        <c:crossAx val="207390008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348503096"/>
+        <c:axId val="207390008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,13 +904,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Percent (%)</a:t>
+                  <a:t>#Deaths</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -893,8 +913,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0646385282743562E-2"/>
-              <c:y val="0.31348295654138575"/>
+              <c:x val="3.0733276661028056E-3"/>
+              <c:y val="0.36076417974348951"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -957,7 +977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348502704"/>
+        <c:crossAx val="207389624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1366,11 +1386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="348501136"/>
-        <c:axId val="348499960"/>
+        <c:axId val="207341560"/>
+        <c:axId val="207341944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348501136"/>
+        <c:axId val="207341560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348499960"/>
+        <c:crossAx val="207341944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1484,7 +1504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348499960"/>
+        <c:axId val="207341944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348501136"/>
+        <c:crossAx val="207341560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,6 +1720,601 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Trend in Number of Deaths by Mode </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>of Transmission, HIV Surveillance System, Puerto Rico 2003-2014</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graficas #Muertes'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Graficas #Muertes'!$A$20:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graficas #Muertes'!$B$20:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graficas #Muertes'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graficas #Muertes'!$B$36:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="373253544"/>
+        <c:axId val="373253936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="373253544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Year of Death</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44423221688352177"/>
+              <c:y val="0.93345607648379259"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373253936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373253936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>#Deaths</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0607400768004451E-2"/>
+              <c:y val="0.35551797531955476"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373253544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39519715029613028"/>
+          <c:y val="0.85856685934937615"/>
+          <c:w val="0.23372984012177153"/>
+          <c:h val="5.5219297735493555E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1898,11 +2513,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="405059208"/>
-        <c:axId val="405055680"/>
+        <c:axId val="207839192"/>
+        <c:axId val="207839576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="405059208"/>
+        <c:axId val="207839192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405055680"/>
+        <c:crossAx val="207839576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2016,7 +2631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="405055680"/>
+        <c:axId val="207839576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405059208"/>
+        <c:crossAx val="207839192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2170,7 +2785,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2191,7 +2806,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2204,18 +2819,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Trend in Number of Deaths by Mode of Transmission, HIV Surveillance System, Puerto Rico 2003-2014</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Trend in Number of New</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Cases by Mode of Transmission, HIV Surveillance System, Puerto Rico 2003-2014 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1492597329953726"/>
+          <c:y val="2.5259355906313646E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2229,7 +2851,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2271,7 +2893,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PercentChangeOverall!$A$25:$A$36</c:f>
+              <c:f>'PercentChangeMSM&amp;IDU'!$A$34:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2316,45 +2938,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PercentChangeOverall!$C$25:$C$36</c:f>
+              <c:f>'PercentChangeMSM&amp;IDU'!$B$34:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,45 +3003,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>PercentChangeOverall!$C$37:$C$48</c:f>
+              <c:f>'PercentChangeMSM&amp;IDU'!$B$46:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>405</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>388</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>454</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>390</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>318</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>338</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>299</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>261</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>268</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>211</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>158</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,11 +3057,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="400503840"/>
-        <c:axId val="400510112"/>
+        <c:axId val="231744616"/>
+        <c:axId val="231745008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="400503840"/>
+        <c:axId val="231744616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,7 +3074,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2465,8 +3087,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1"/>
-                  <a:t>Years</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Year of Diagnosis</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2475,8 +3097,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49767616672930781"/>
-              <c:y val="0.9238335535895047"/>
+              <c:x val="0.42232387121505488"/>
+              <c:y val="0.91626509310445159"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2492,7 +3114,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2530,7 +3152,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2545,7 +3167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400510112"/>
+        <c:crossAx val="231745008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2553,7 +3175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="400510112"/>
+        <c:axId val="231745008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +3188,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2579,14 +3201,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1"/>
-                  <a:t>Num</a:t>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>#New Cases</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-                  <a:t>ber of deaths</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2594,8 +3211,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.8422984012244366E-3"/>
-              <c:y val="0.35988351347489522"/>
+              <c:x val="9.9354197714853452E-3"/>
+              <c:y val="0.36475703284114047"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2611,7 +3228,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2643,7 +3260,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2658,7 +3275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400503840"/>
+        <c:crossAx val="231744616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,6 +3287,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85157468580212869"/>
+          <c:y val="0.41883478505964505"/>
+          <c:w val="0.10272238324903873"/>
+          <c:h val="0.13050364143875473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2867,6 +3525,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4416,6 +5114,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4966,15 +6180,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>604308</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>103717</xdr:rowOff>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>391583</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4988,6 +6202,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>497416</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>284691</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5028,22 +6274,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5052,7 +6303,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5326,7 +6577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
@@ -5343,93 +6594,93 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="28" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="30">
+      <c r="A4" s="31"/>
+      <c r="B4" s="28">
         <v>2003</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30">
+      <c r="C4" s="29"/>
+      <c r="D4" s="28">
         <v>2004</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="30">
+      <c r="E4" s="29"/>
+      <c r="F4" s="28">
         <v>2005</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30">
+      <c r="G4" s="29"/>
+      <c r="H4" s="28">
         <v>2006</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="30">
+      <c r="I4" s="29"/>
+      <c r="J4" s="28">
         <v>2007</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="30">
+      <c r="K4" s="29"/>
+      <c r="L4" s="28">
         <v>2008</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="30">
+      <c r="M4" s="29"/>
+      <c r="N4" s="28">
         <v>2009</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="30">
+      <c r="O4" s="29"/>
+      <c r="P4" s="28">
         <v>2010</v>
       </c>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="30">
+      <c r="Q4" s="29"/>
+      <c r="R4" s="28">
         <v>2011</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="30">
+      <c r="S4" s="29"/>
+      <c r="T4" s="28">
         <v>2012</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="30">
+      <c r="U4" s="29"/>
+      <c r="V4" s="28">
         <v>2013</v>
       </c>
-      <c r="W4" s="31"/>
-      <c r="X4" s="30">
+      <c r="W4" s="29"/>
+      <c r="X4" s="28">
         <v>2014</v>
       </c>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="27"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6546,7 +7797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -7013,93 +8264,93 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="25" t="s">
+      <c r="A34" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="28" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="30">
+      <c r="A35" s="31"/>
+      <c r="B35" s="28">
         <v>2003</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30">
+      <c r="C35" s="29"/>
+      <c r="D35" s="28">
         <v>2004</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="30">
+      <c r="E35" s="29"/>
+      <c r="F35" s="28">
         <v>2005</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="30">
+      <c r="G35" s="29"/>
+      <c r="H35" s="28">
         <v>2006</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="30">
+      <c r="I35" s="29"/>
+      <c r="J35" s="28">
         <v>2007</v>
       </c>
-      <c r="K35" s="31"/>
-      <c r="L35" s="30">
+      <c r="K35" s="29"/>
+      <c r="L35" s="28">
         <v>2008</v>
       </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="30">
+      <c r="M35" s="29"/>
+      <c r="N35" s="28">
         <v>2009</v>
       </c>
-      <c r="O35" s="31"/>
-      <c r="P35" s="30">
+      <c r="O35" s="29"/>
+      <c r="P35" s="28">
         <v>2010</v>
       </c>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="30">
+      <c r="Q35" s="29"/>
+      <c r="R35" s="28">
         <v>2011</v>
       </c>
-      <c r="S35" s="31"/>
-      <c r="T35" s="30">
+      <c r="S35" s="29"/>
+      <c r="T35" s="28">
         <v>2012</v>
       </c>
-      <c r="U35" s="31"/>
-      <c r="V35" s="30">
+      <c r="U35" s="29"/>
+      <c r="V35" s="28">
         <v>2013</v>
       </c>
-      <c r="W35" s="31"/>
-      <c r="X35" s="30">
+      <c r="W35" s="29"/>
+      <c r="X35" s="28">
         <v>2014</v>
       </c>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="27"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
@@ -7658,93 +8909,93 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="25" t="s">
+      <c r="A52" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="28" t="s">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="30">
+      <c r="A53" s="31"/>
+      <c r="B53" s="28">
         <v>2003</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="30">
+      <c r="C53" s="29"/>
+      <c r="D53" s="28">
         <v>2004</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="30">
+      <c r="E53" s="29"/>
+      <c r="F53" s="28">
         <v>2005</v>
       </c>
-      <c r="G53" s="31"/>
-      <c r="H53" s="30">
+      <c r="G53" s="29"/>
+      <c r="H53" s="28">
         <v>2006</v>
       </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="30">
+      <c r="I53" s="29"/>
+      <c r="J53" s="28">
         <v>2007</v>
       </c>
-      <c r="K53" s="31"/>
-      <c r="L53" s="30">
+      <c r="K53" s="29"/>
+      <c r="L53" s="28">
         <v>2008</v>
       </c>
-      <c r="M53" s="31"/>
-      <c r="N53" s="30">
+      <c r="M53" s="29"/>
+      <c r="N53" s="28">
         <v>2009</v>
       </c>
-      <c r="O53" s="31"/>
-      <c r="P53" s="30">
+      <c r="O53" s="29"/>
+      <c r="P53" s="28">
         <v>2010</v>
       </c>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="30">
+      <c r="Q53" s="29"/>
+      <c r="R53" s="28">
         <v>2011</v>
       </c>
-      <c r="S53" s="31"/>
-      <c r="T53" s="30">
+      <c r="S53" s="29"/>
+      <c r="T53" s="28">
         <v>2012</v>
       </c>
-      <c r="U53" s="31"/>
-      <c r="V53" s="30">
+      <c r="U53" s="29"/>
+      <c r="V53" s="28">
         <v>2013</v>
       </c>
-      <c r="W53" s="31"/>
-      <c r="X53" s="30">
+      <c r="W53" s="29"/>
+      <c r="X53" s="28">
         <v>2014</v>
       </c>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="27"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="1" t="s">
         <v>3</v>
       </c>
@@ -8607,20 +9858,21 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B52:Y52"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B34:Y34"/>
@@ -8637,21 +9889,20 @@
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="V35:W35"/>
     <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B52:Y52"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8662,8 +9913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8672,10 +9923,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8846,10 +10097,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -9020,10 +10271,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="33"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -9194,10 +10445,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="32"/>
+      <c r="B50" s="33"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -9382,10 +10633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9404,17 +10655,17 @@
       <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -9423,11 +10674,11 @@
       <c r="B2">
         <v>775</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -9444,7 +10695,7 @@
         <f>B2</f>
         <v>775</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="22">
         <f>C3/D3*100</f>
         <v>1.1612903225806452</v>
       </c>
@@ -9465,7 +10716,7 @@
         <f t="shared" ref="D4:D13" si="1">B3</f>
         <v>784</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="22">
         <f t="shared" ref="E4:E13" si="2">C4/D4*100</f>
         <v>8.2908163265306118</v>
       </c>
@@ -9486,7 +10737,7 @@
         <f t="shared" si="1"/>
         <v>849</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="22">
         <f t="shared" si="2"/>
         <v>9.1872791519434625</v>
       </c>
@@ -9507,7 +10758,7 @@
         <f t="shared" si="1"/>
         <v>771</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="22">
         <f t="shared" si="2"/>
         <v>13.878080415045396</v>
       </c>
@@ -9528,7 +10779,7 @@
         <f t="shared" si="1"/>
         <v>664</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="22">
         <f t="shared" si="2"/>
         <v>3.1626506024096384</v>
       </c>
@@ -9549,7 +10800,7 @@
         <f t="shared" si="1"/>
         <v>685</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="22">
         <f t="shared" si="2"/>
         <v>1.7518248175182483</v>
       </c>
@@ -9570,7 +10821,7 @@
         <f t="shared" si="1"/>
         <v>673</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="22">
         <f t="shared" si="2"/>
         <v>13.967310549777118</v>
       </c>
@@ -9591,7 +10842,7 @@
         <f t="shared" si="1"/>
         <v>579</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="22">
         <f t="shared" si="2"/>
         <v>0.69084628670120896</v>
       </c>
@@ -9612,7 +10863,7 @@
         <f t="shared" si="1"/>
         <v>575</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="22">
         <f t="shared" si="2"/>
         <v>16.695652173913047</v>
       </c>
@@ -9633,7 +10884,7 @@
         <f t="shared" si="1"/>
         <v>479</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="22">
         <f t="shared" si="2"/>
         <v>0.20876826722338201</v>
       </c>
@@ -9654,7 +10905,7 @@
         <f t="shared" si="1"/>
         <v>478</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="22">
         <f t="shared" si="2"/>
         <v>12.552301255230125</v>
       </c>
@@ -9666,284 +10917,6 @@
       </c>
       <c r="B14">
         <v>7730</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2003</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2004</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2005</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2006</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2007</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2008</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2009</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2010</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2011</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2013</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2014</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2003</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2004</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2005</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2006</v>
-      </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2007</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2008</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2009</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2010</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2011</v>
-      </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2012</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2013</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2014</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -9957,4 +10930,834 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4" s="36">
+        <v>14</v>
+      </c>
+      <c r="D4" s="36">
+        <v>91</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="41">
+        <f>C4/D4*100</f>
+        <v>15.384615384615385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2005</v>
+      </c>
+      <c r="B5">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>105</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" ref="F5:F26" si="0">C5/D5*100</f>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="0"/>
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8">
+        <v>86</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>84</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>86</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="0"/>
+        <v>4.6511627906976747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="41">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>69</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="41">
+        <f t="shared" si="0"/>
+        <v>15.942028985507244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" si="0"/>
+        <v>28.749999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>57</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" si="0"/>
+        <v>28.07017543859649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>73</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="0"/>
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2003</v>
+      </c>
+      <c r="B15">
+        <v>405</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2004</v>
+      </c>
+      <c r="B16">
+        <v>388</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>405</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="41">
+        <f t="shared" si="0"/>
+        <v>4.1975308641975309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2005</v>
+      </c>
+      <c r="B17">
+        <v>454</v>
+      </c>
+      <c r="C17">
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <v>388</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="0"/>
+        <v>17.010309278350515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18">
+        <v>390</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>454</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="41">
+        <f t="shared" si="0"/>
+        <v>14.096916299559473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2007</v>
+      </c>
+      <c r="B19">
+        <v>318</v>
+      </c>
+      <c r="C19">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <v>390</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="41">
+        <f t="shared" si="0"/>
+        <v>18.461538461538463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2008</v>
+      </c>
+      <c r="B20">
+        <v>338</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>318</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="41">
+        <f t="shared" si="0"/>
+        <v>6.2893081761006293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2009</v>
+      </c>
+      <c r="B21">
+        <v>299</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>338</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="41">
+        <f t="shared" si="0"/>
+        <v>11.538461538461538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2010</v>
+      </c>
+      <c r="B22">
+        <v>261</v>
+      </c>
+      <c r="C22">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>299</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="41">
+        <f t="shared" si="0"/>
+        <v>12.709030100334449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2011</v>
+      </c>
+      <c r="B23">
+        <v>268</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>261</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="41">
+        <f t="shared" si="0"/>
+        <v>2.6819923371647509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24">
+        <v>211</v>
+      </c>
+      <c r="C24">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>268</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="41">
+        <f t="shared" si="0"/>
+        <v>21.268656716417912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+      <c r="B25">
+        <v>194</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="41">
+        <f t="shared" si="0"/>
+        <v>8.0568720379146921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26">
+        <v>158</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="41">
+        <f t="shared" si="0"/>
+        <v>18.556701030927837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2003</v>
+      </c>
+      <c r="B34" s="36">
+        <v>127</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2004</v>
+      </c>
+      <c r="B35" s="36">
+        <v>143</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2005</v>
+      </c>
+      <c r="B36" s="36">
+        <v>173</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37" s="36">
+        <v>172</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2007</v>
+      </c>
+      <c r="B38" s="36">
+        <v>190</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2008</v>
+      </c>
+      <c r="B39" s="36">
+        <v>214</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2009</v>
+      </c>
+      <c r="B40" s="36">
+        <v>224</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2010</v>
+      </c>
+      <c r="B41" s="36">
+        <v>240</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="36">
+        <v>244</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="36">
+        <v>271</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="36">
+        <v>270</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="36">
+        <v>257</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2003</v>
+      </c>
+      <c r="B46">
+        <v>267</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2004</v>
+      </c>
+      <c r="B47" s="36">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2005</v>
+      </c>
+      <c r="B48" s="36">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2006</v>
+      </c>
+      <c r="B49" s="36">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="36">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2008</v>
+      </c>
+      <c r="B51" s="36">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2009</v>
+      </c>
+      <c r="B52" s="36">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2010</v>
+      </c>
+      <c r="B53" s="36">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2011</v>
+      </c>
+      <c r="B54" s="36">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2012</v>
+      </c>
+      <c r="B55" s="36">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2013</v>
+      </c>
+      <c r="B56" s="36">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2014</v>
+      </c>
+      <c r="B57" s="36">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A33:C56">
+    <sortCondition descending="1" ref="C33:C56"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PercentChangeOverall.xlsx
+++ b/PercentChangeOverall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scanner\Desktop\Git\proptest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmachin\Desktop\Git\proptest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
   <si>
     <t>Transmission category</t>
   </si>
@@ -202,6 +202,30 @@
   <si>
     <t>Number of Deaths of HIV by MSM &amp; IDU</t>
   </si>
+  <si>
+    <t>2006-2008</t>
+  </si>
+  <si>
+    <t>2009-2011</t>
+  </si>
+  <si>
+    <t>2012-2014</t>
+  </si>
+  <si>
+    <t>2003-2005</t>
+  </si>
+  <si>
+    <t>Deaths (reference)</t>
+  </si>
+  <si>
+    <t>Percent Change Agrupado</t>
+  </si>
+  <si>
+    <t>Absolute Differences</t>
+  </si>
+  <si>
+    <t>Percent Change using grouped years</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +298,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -430,7 +462,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +500,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -489,15 +545,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,22 +554,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,11 +797,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="207389624"/>
-        <c:axId val="207390008"/>
+        <c:axId val="387478728"/>
+        <c:axId val="387479120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207389624"/>
+        <c:axId val="387478728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207390008"/>
+        <c:crossAx val="387479120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207390008"/>
+        <c:axId val="387479120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +1015,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207389624"/>
+        <c:crossAx val="387478728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,7 +1115,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1386,11 +1423,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="207341560"/>
-        <c:axId val="207341944"/>
+        <c:axId val="387480296"/>
+        <c:axId val="387480688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207341560"/>
+        <c:axId val="387480296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207341944"/>
+        <c:crossAx val="387480688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1504,7 +1541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207341944"/>
+        <c:axId val="387480688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207341560"/>
+        <c:crossAx val="387480296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,11 +2023,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373253544"/>
-        <c:axId val="373253936"/>
+        <c:axId val="387485000"/>
+        <c:axId val="387482256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373253544"/>
+        <c:axId val="387485000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373253936"/>
+        <c:crossAx val="387482256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2104,7 +2141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373253936"/>
+        <c:axId val="387482256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373253544"/>
+        <c:crossAx val="387485000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2513,11 +2550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="207839192"/>
-        <c:axId val="207839576"/>
+        <c:axId val="387484216"/>
+        <c:axId val="387483824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207839192"/>
+        <c:axId val="387484216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,7 +2660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207839576"/>
+        <c:crossAx val="387483824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2631,7 +2668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207839576"/>
+        <c:axId val="387483824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207839192"/>
+        <c:crossAx val="387484216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2786,6 +2823,439 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Trend in Percent Change, HIV Surveillance System, Puerto Rico 2003-2014</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8632737980923115E-2"/>
+          <c:y val="0.15742548685624536"/>
+          <c:w val="0.90348108315728826"/>
+          <c:h val="0.71480887886042588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Overall</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>PercentChangeOverall!$A$54:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2003-2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006-2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009-2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012-2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PercentChangeOverall!$D$54:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.5483870967741939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.154345006485086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.561664190193166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.734864300626306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="150892512"/>
+        <c:axId val="150893688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="150892512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47232443505537414"/>
+              <c:y val="0.93325388201128312"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150893688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="150893688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percent Change (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2926189104410727E-3"/>
+              <c:y val="0.36109925125220921"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150892512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3057,11 +3527,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="231744616"/>
-        <c:axId val="231745008"/>
+        <c:axId val="387483432"/>
+        <c:axId val="310342616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231744616"/>
+        <c:axId val="387483432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231745008"/>
+        <c:crossAx val="310342616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +3645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231745008"/>
+        <c:axId val="310342616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231744616"/>
+        <c:crossAx val="387483432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3313,6 +3783,521 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Trend in Percent Change by Mode of Transmission, HIV Surveillance System, Puerto Rico 2003-2014</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10169876444769298"/>
+          <c:y val="0.18872668319810515"/>
+          <c:w val="0.87767301239243833"/>
+          <c:h val="0.68174115578079286"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MSM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PercentChangeMSM&amp;IDU'!$A$96:$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2003-2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006-2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009-2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012-2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PercentChangeMSM&amp;IDU'!$E$96:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.197802197802198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.82456140350877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IDU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PercentChangeMSM&amp;IDU'!$E$100:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.098765432098766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.367892976588628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.118483412322274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="149240152"/>
+        <c:axId val="149240544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="149240152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48789114440863662"/>
+              <c:y val="0.93863538432309346"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149240544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149240544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percent Change (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.30136595162446295"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149240152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21701806261559078"/>
+          <c:y val="0.28692704138535574"/>
+          <c:w val="9.7899745654156101E-2"/>
+          <c:h val="0.12573949351162028"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3565,6 +4550,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5630,6 +6695,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6274,6 +8371,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6304,6 +8431,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6597,87 +8754,87 @@
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="26" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
-      <c r="B4" s="28">
+      <c r="B4" s="38">
         <v>2003</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28">
+      <c r="C4" s="39"/>
+      <c r="D4" s="38">
         <v>2004</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="28">
+      <c r="E4" s="39"/>
+      <c r="F4" s="38">
         <v>2005</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28">
+      <c r="G4" s="39"/>
+      <c r="H4" s="38">
         <v>2006</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="28">
+      <c r="I4" s="39"/>
+      <c r="J4" s="38">
         <v>2007</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="28">
+      <c r="K4" s="39"/>
+      <c r="L4" s="38">
         <v>2008</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="28">
+      <c r="M4" s="39"/>
+      <c r="N4" s="38">
         <v>2009</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="28">
+      <c r="O4" s="39"/>
+      <c r="P4" s="38">
         <v>2010</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="28">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="38">
         <v>2011</v>
       </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="28">
+      <c r="S4" s="39"/>
+      <c r="T4" s="38">
         <v>2012</v>
       </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="28">
+      <c r="U4" s="39"/>
+      <c r="V4" s="38">
         <v>2013</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="28">
+      <c r="W4" s="39"/>
+      <c r="X4" s="38">
         <v>2014</v>
       </c>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="27"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="37"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
@@ -8267,87 +10424,87 @@
       <c r="A34" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="26" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31"/>
-      <c r="B35" s="28">
+      <c r="B35" s="38">
         <v>2003</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28">
+      <c r="C35" s="39"/>
+      <c r="D35" s="38">
         <v>2004</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="28">
+      <c r="E35" s="39"/>
+      <c r="F35" s="38">
         <v>2005</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28">
+      <c r="G35" s="39"/>
+      <c r="H35" s="38">
         <v>2006</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="28">
+      <c r="I35" s="39"/>
+      <c r="J35" s="38">
         <v>2007</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="28">
+      <c r="K35" s="39"/>
+      <c r="L35" s="38">
         <v>2008</v>
       </c>
-      <c r="M35" s="29"/>
-      <c r="N35" s="28">
+      <c r="M35" s="39"/>
+      <c r="N35" s="38">
         <v>2009</v>
       </c>
-      <c r="O35" s="29"/>
-      <c r="P35" s="28">
+      <c r="O35" s="39"/>
+      <c r="P35" s="38">
         <v>2010</v>
       </c>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="28">
+      <c r="Q35" s="39"/>
+      <c r="R35" s="38">
         <v>2011</v>
       </c>
-      <c r="S35" s="29"/>
-      <c r="T35" s="28">
+      <c r="S35" s="39"/>
+      <c r="T35" s="38">
         <v>2012</v>
       </c>
-      <c r="U35" s="29"/>
-      <c r="V35" s="28">
+      <c r="U35" s="39"/>
+      <c r="V35" s="38">
         <v>2013</v>
       </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="28">
+      <c r="W35" s="39"/>
+      <c r="X35" s="38">
         <v>2014</v>
       </c>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="27"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="37"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
@@ -8912,87 +11069,87 @@
       <c r="A52" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="26" t="s">
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="31"/>
-      <c r="B53" s="28">
+      <c r="B53" s="38">
         <v>2003</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="28">
+      <c r="C53" s="39"/>
+      <c r="D53" s="38">
         <v>2004</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="28">
+      <c r="E53" s="39"/>
+      <c r="F53" s="38">
         <v>2005</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="28">
+      <c r="G53" s="39"/>
+      <c r="H53" s="38">
         <v>2006</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="28">
+      <c r="I53" s="39"/>
+      <c r="J53" s="38">
         <v>2007</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="28">
+      <c r="K53" s="39"/>
+      <c r="L53" s="38">
         <v>2008</v>
       </c>
-      <c r="M53" s="29"/>
-      <c r="N53" s="28">
+      <c r="M53" s="39"/>
+      <c r="N53" s="38">
         <v>2009</v>
       </c>
-      <c r="O53" s="29"/>
-      <c r="P53" s="28">
+      <c r="O53" s="39"/>
+      <c r="P53" s="38">
         <v>2010</v>
       </c>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="28">
+      <c r="Q53" s="39"/>
+      <c r="R53" s="38">
         <v>2011</v>
       </c>
-      <c r="S53" s="29"/>
-      <c r="T53" s="28">
+      <c r="S53" s="39"/>
+      <c r="T53" s="38">
         <v>2012</v>
       </c>
-      <c r="U53" s="29"/>
-      <c r="V53" s="28">
+      <c r="U53" s="39"/>
+      <c r="V53" s="38">
         <v>2013</v>
       </c>
-      <c r="W53" s="29"/>
-      <c r="X53" s="28">
+      <c r="W53" s="39"/>
+      <c r="X53" s="38">
         <v>2014</v>
       </c>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="27"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="37"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
@@ -9858,21 +12015,20 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B52:Y52"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B34:Y34"/>
@@ -9889,20 +12045,21 @@
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="V35:W35"/>
     <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="B52:Y52"/>
-    <mergeCell ref="Z52:Z53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9913,7 +12070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -9923,10 +12080,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10097,10 +12254,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -10271,10 +12428,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="40"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -10445,10 +12602,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="40"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -10633,15 +12790,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -10655,17 +12812,17 @@
       <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -10674,11 +12831,11 @@
       <c r="B2">
         <v>775</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -10919,8 +13076,357 @@
         <v>7730</v>
       </c>
     </row>
+    <row r="33" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2003</v>
+      </c>
+      <c r="B37">
+        <v>775</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2004</v>
+      </c>
+      <c r="B38">
+        <v>784</v>
+      </c>
+      <c r="C38">
+        <f>ABS(B38-B37)</f>
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <f>B37</f>
+        <v>775</v>
+      </c>
+      <c r="E38" s="22">
+        <f>C38/D38*100</f>
+        <v>1.1612903225806452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2005</v>
+      </c>
+      <c r="B39">
+        <v>849</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C48" si="3">ABS(B39-B38)</f>
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D48" si="4">B38</f>
+        <v>784</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" ref="E39:E48" si="5">C39/D39*100</f>
+        <v>8.2908163265306118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2006</v>
+      </c>
+      <c r="B40">
+        <v>771</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>849</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="shared" si="5"/>
+        <v>9.1872791519434625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2007</v>
+      </c>
+      <c r="B41">
+        <v>664</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>771</v>
+      </c>
+      <c r="E41" s="22">
+        <f t="shared" si="5"/>
+        <v>13.878080415045396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2008</v>
+      </c>
+      <c r="B42">
+        <v>685</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>664</v>
+      </c>
+      <c r="E42" s="22">
+        <f t="shared" si="5"/>
+        <v>3.1626506024096384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2009</v>
+      </c>
+      <c r="B43">
+        <v>673</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>685</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="shared" si="5"/>
+        <v>1.7518248175182483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2010</v>
+      </c>
+      <c r="B44">
+        <v>579</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>673</v>
+      </c>
+      <c r="E44" s="22">
+        <f t="shared" si="5"/>
+        <v>13.967310549777118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2011</v>
+      </c>
+      <c r="B45">
+        <v>575</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>579</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="shared" si="5"/>
+        <v>0.69084628670120896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2012</v>
+      </c>
+      <c r="B46">
+        <v>479</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>575</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" si="5"/>
+        <v>16.695652173913047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2013</v>
+      </c>
+      <c r="B47">
+        <v>478</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>479</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="shared" si="5"/>
+        <v>0.20876826722338201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2014</v>
+      </c>
+      <c r="B48">
+        <v>418</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>478</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="shared" si="5"/>
+        <v>12.552301255230125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>7730</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>775</v>
+      </c>
+      <c r="C54">
+        <f>ABS(B54-B39)</f>
+        <v>74</v>
+      </c>
+      <c r="D54" s="26">
+        <f>C54/B54*100</f>
+        <v>9.5483870967741939</v>
+      </c>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>771</v>
+      </c>
+      <c r="C55">
+        <f>ABS(B55-B42)</f>
+        <v>86</v>
+      </c>
+      <c r="D55" s="26">
+        <f t="shared" ref="D55:D57" si="6">C55/B55*100</f>
+        <v>11.154345006485086</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>673</v>
+      </c>
+      <c r="C56">
+        <f>ABS(B56-B45)</f>
+        <v>98</v>
+      </c>
+      <c r="D56" s="26">
+        <f t="shared" si="6"/>
+        <v>14.561664190193166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>479</v>
+      </c>
+      <c r="C57">
+        <f>ABS(B57-B48)</f>
+        <v>61</v>
+      </c>
+      <c r="D57" s="26">
+        <f t="shared" si="6"/>
+        <v>12.734864300626306</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
@@ -10928,26 +13434,27 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10967,16 +13474,16 @@
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -10987,10 +13494,10 @@
       <c r="B3">
         <v>91</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -10999,16 +13506,16 @@
       <c r="B4">
         <v>105</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="23">
         <v>14</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="23">
         <v>91</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="28">
         <f>C4/D4*100</f>
         <v>15.384615384615385</v>
       </c>
@@ -11026,10 +13533,10 @@
       <c r="D5">
         <v>105</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="28">
         <f t="shared" ref="F5:F26" si="0">C5/D5*100</f>
         <v>11.428571428571429</v>
       </c>
@@ -11047,10 +13554,10 @@
       <c r="D6">
         <v>93</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>3.225806451612903</v>
       </c>
@@ -11068,10 +13575,10 @@
       <c r="D7">
         <v>90</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
@@ -11089,10 +13596,10 @@
       <c r="D8">
         <v>84</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>2.3809523809523809</v>
       </c>
@@ -11110,10 +13617,10 @@
       <c r="D9">
         <v>86</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>4.6511627906976747</v>
       </c>
@@ -11131,10 +13638,10 @@
       <c r="D10">
         <v>90</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>23.333333333333332</v>
       </c>
@@ -11152,10 +13659,10 @@
       <c r="D11">
         <v>69</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>15.942028985507244</v>
       </c>
@@ -11173,10 +13680,10 @@
       <c r="D12">
         <v>80</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="28">
         <f t="shared" si="0"/>
         <v>28.749999999999996</v>
       </c>
@@ -11194,10 +13701,10 @@
       <c r="D13">
         <v>57</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="28">
         <f t="shared" si="0"/>
         <v>28.07017543859649</v>
       </c>
@@ -11215,10 +13722,10 @@
       <c r="D14">
         <v>73</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="28">
         <f t="shared" si="0"/>
         <v>1.3698630136986301</v>
       </c>
@@ -11230,10 +13737,10 @@
       <c r="B15">
         <v>405</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="42"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -11251,7 +13758,7 @@
       <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="28">
         <f t="shared" si="0"/>
         <v>4.1975308641975309</v>
       </c>
@@ -11272,7 +13779,7 @@
       <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="28">
         <f t="shared" si="0"/>
         <v>17.010309278350515</v>
       </c>
@@ -11293,7 +13800,7 @@
       <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
         <v>14.096916299559473</v>
       </c>
@@ -11314,7 +13821,7 @@
       <c r="E19" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="28">
         <f t="shared" si="0"/>
         <v>18.461538461538463</v>
       </c>
@@ -11335,7 +13842,7 @@
       <c r="E20" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="28">
         <f t="shared" si="0"/>
         <v>6.2893081761006293</v>
       </c>
@@ -11356,7 +13863,7 @@
       <c r="E21" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="28">
         <f t="shared" si="0"/>
         <v>11.538461538461538</v>
       </c>
@@ -11377,7 +13884,7 @@
       <c r="E22" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="28">
         <f t="shared" si="0"/>
         <v>12.709030100334449</v>
       </c>
@@ -11398,7 +13905,7 @@
       <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="28">
         <f t="shared" si="0"/>
         <v>2.6819923371647509</v>
       </c>
@@ -11419,7 +13926,7 @@
       <c r="E24" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="28">
         <f t="shared" si="0"/>
         <v>21.268656716417912</v>
       </c>
@@ -11440,7 +13947,7 @@
       <c r="E25" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="28">
         <f t="shared" si="0"/>
         <v>8.0568720379146921</v>
       </c>
@@ -11461,7 +13968,7 @@
       <c r="E26" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="28">
         <f t="shared" si="0"/>
         <v>18.556701030927837</v>
       </c>
@@ -11477,10 +13984,10 @@
       <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -11488,10 +13995,10 @@
       <c r="A34">
         <v>2003</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="23">
         <v>127</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11499,10 +14006,10 @@
       <c r="A35">
         <v>2004</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="23">
         <v>143</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11510,10 +14017,10 @@
       <c r="A36">
         <v>2005</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="23">
         <v>173</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11521,10 +14028,10 @@
       <c r="A37">
         <v>2006</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="23">
         <v>172</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11532,10 +14039,10 @@
       <c r="A38">
         <v>2007</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="23">
         <v>190</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11543,10 +14050,10 @@
       <c r="A39">
         <v>2008</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="23">
         <v>214</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11554,10 +14061,10 @@
       <c r="A40">
         <v>2009</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="23">
         <v>224</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11565,10 +14072,10 @@
       <c r="A41">
         <v>2010</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="23">
         <v>240</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11576,10 +14083,10 @@
       <c r="A42">
         <v>2011</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="23">
         <v>244</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11587,10 +14094,10 @@
       <c r="A43">
         <v>2012</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="23">
         <v>271</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11598,10 +14105,10 @@
       <c r="A44">
         <v>2013</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="23">
         <v>270</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11609,10 +14116,10 @@
       <c r="A45">
         <v>2014</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="23">
         <v>257</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11631,7 +14138,7 @@
       <c r="A47">
         <v>2004</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="23">
         <v>222</v>
       </c>
       <c r="C47" t="s">
@@ -11642,119 +14149,826 @@
       <c r="A48">
         <v>2005</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="23">
         <v>240</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2006</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="23">
         <v>205</v>
       </c>
       <c r="C49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2007</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="23">
         <v>162</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2008</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="23">
         <v>185</v>
       </c>
       <c r="C51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2009</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="23">
         <v>126</v>
       </c>
       <c r="C52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2010</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="23">
         <v>102</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2011</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="23">
         <v>90</v>
       </c>
       <c r="C54" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2012</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="23">
         <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2013</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="23">
         <v>88</v>
       </c>
       <c r="C56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2014</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="23">
         <v>60</v>
       </c>
       <c r="C57" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="64" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2003</v>
+      </c>
+      <c r="B67">
+        <v>91</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="27"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2004</v>
+      </c>
+      <c r="B68">
+        <v>105</v>
+      </c>
+      <c r="C68" s="23">
+        <v>14</v>
+      </c>
+      <c r="D68" s="23">
+        <v>91</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="28">
+        <f>C68/D68*100</f>
+        <v>15.384615384615385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2005</v>
+      </c>
+      <c r="B69">
+        <v>93</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>105</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="28">
+        <f t="shared" ref="F69:F90" si="1">C69/D69*100</f>
+        <v>11.428571428571429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2006</v>
+      </c>
+      <c r="B70">
+        <v>90</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>93</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="28">
+        <f t="shared" si="1"/>
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2007</v>
+      </c>
+      <c r="B71">
+        <v>84</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>90</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="28">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2008</v>
+      </c>
+      <c r="B72">
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>84</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="28">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2009</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>86</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="28">
+        <f t="shared" si="1"/>
+        <v>4.6511627906976747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2010</v>
+      </c>
+      <c r="B74">
+        <v>69</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>90</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="28">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2011</v>
+      </c>
+      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>69</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="28">
+        <f t="shared" si="1"/>
+        <v>15.942028985507244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2012</v>
+      </c>
+      <c r="B76">
+        <v>57</v>
+      </c>
+      <c r="C76">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>80</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="28">
+        <f t="shared" si="1"/>
+        <v>28.749999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2013</v>
+      </c>
+      <c r="B77">
+        <v>73</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>57</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="28">
+        <f t="shared" si="1"/>
+        <v>28.07017543859649</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2014</v>
+      </c>
+      <c r="B78">
+        <v>74</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>73</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="28">
+        <f t="shared" si="1"/>
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2003</v>
+      </c>
+      <c r="B79">
+        <v>405</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2004</v>
+      </c>
+      <c r="B80">
+        <v>388</v>
+      </c>
+      <c r="C80">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>405</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="28">
+        <f t="shared" ref="F80:F90" si="2">C80/D80*100</f>
+        <v>4.1975308641975309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2005</v>
+      </c>
+      <c r="B81">
+        <v>454</v>
+      </c>
+      <c r="C81">
+        <v>66</v>
+      </c>
+      <c r="D81">
+        <v>388</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="28">
+        <f t="shared" si="2"/>
+        <v>17.010309278350515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2006</v>
+      </c>
+      <c r="B82">
+        <v>390</v>
+      </c>
+      <c r="C82">
+        <v>64</v>
+      </c>
+      <c r="D82">
+        <v>454</v>
+      </c>
+      <c r="E82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="28">
+        <f t="shared" si="2"/>
+        <v>14.096916299559473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2007</v>
+      </c>
+      <c r="B83">
+        <v>318</v>
+      </c>
+      <c r="C83">
+        <v>72</v>
+      </c>
+      <c r="D83">
+        <v>390</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="28">
+        <f t="shared" si="2"/>
+        <v>18.461538461538463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2008</v>
+      </c>
+      <c r="B84">
+        <v>338</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>318</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" s="28">
+        <f t="shared" si="2"/>
+        <v>6.2893081761006293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2009</v>
+      </c>
+      <c r="B85">
+        <v>299</v>
+      </c>
+      <c r="C85">
+        <v>39</v>
+      </c>
+      <c r="D85">
+        <v>338</v>
+      </c>
+      <c r="E85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="28">
+        <f t="shared" si="2"/>
+        <v>11.538461538461538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2010</v>
+      </c>
+      <c r="B86">
+        <v>261</v>
+      </c>
+      <c r="C86">
+        <v>38</v>
+      </c>
+      <c r="D86">
+        <v>299</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" s="28">
+        <f t="shared" si="2"/>
+        <v>12.709030100334449</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2011</v>
+      </c>
+      <c r="B87">
+        <v>268</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>261</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="28">
+        <f t="shared" si="2"/>
+        <v>2.6819923371647509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2012</v>
+      </c>
+      <c r="B88">
+        <v>211</v>
+      </c>
+      <c r="C88">
+        <v>57</v>
+      </c>
+      <c r="D88">
+        <v>268</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="28">
+        <f t="shared" si="2"/>
+        <v>21.268656716417912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2013</v>
+      </c>
+      <c r="B89">
+        <v>194</v>
+      </c>
+      <c r="C89">
+        <v>17</v>
+      </c>
+      <c r="D89">
+        <v>211</v>
+      </c>
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="28">
+        <f t="shared" si="2"/>
+        <v>8.0568720379146921</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2014</v>
+      </c>
+      <c r="B90">
+        <v>158</v>
+      </c>
+      <c r="C90">
+        <v>36</v>
+      </c>
+      <c r="D90">
+        <v>194</v>
+      </c>
+      <c r="E90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="28">
+        <f t="shared" si="2"/>
+        <v>18.556701030927837</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95" s="28"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96">
+        <v>91</v>
+      </c>
+      <c r="D96">
+        <f>ABS(C96-B69)</f>
+        <v>2</v>
+      </c>
+      <c r="E96" s="26">
+        <f>D96/C96*100</f>
+        <v>2.197802197802198</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96" s="28"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97">
+        <v>90</v>
+      </c>
+      <c r="D97">
+        <f>ABS(C97-B72)</f>
+        <v>4</v>
+      </c>
+      <c r="E97" s="26">
+        <f t="shared" ref="E97:E103" si="3">D97/C97*100</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97" s="28"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98">
+        <v>90</v>
+      </c>
+      <c r="D98">
+        <f>ABS(C98-B75)</f>
+        <v>10</v>
+      </c>
+      <c r="E98" s="26">
+        <f t="shared" si="3"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98" s="28"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99">
+        <v>57</v>
+      </c>
+      <c r="D99">
+        <f>ABS(C99-B78)</f>
+        <v>17</v>
+      </c>
+      <c r="E99" s="26">
+        <f t="shared" si="3"/>
+        <v>29.82456140350877</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99" s="28"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100">
+        <v>405</v>
+      </c>
+      <c r="D100">
+        <f>ABS(C100-B81)</f>
+        <v>49</v>
+      </c>
+      <c r="E100" s="26">
+        <f t="shared" si="3"/>
+        <v>12.098765432098766</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101">
+        <v>390</v>
+      </c>
+      <c r="D101">
+        <f>ABS(C101-B84)</f>
+        <v>52</v>
+      </c>
+      <c r="E101" s="26">
+        <f t="shared" si="3"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102">
+        <v>299</v>
+      </c>
+      <c r="D102">
+        <f>ABS(C102-B87)</f>
+        <v>31</v>
+      </c>
+      <c r="E102" s="26">
+        <f t="shared" si="3"/>
+        <v>10.367892976588628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103">
+        <v>211</v>
+      </c>
+      <c r="D103">
+        <f>ABS(C103-B90)</f>
+        <v>53</v>
+      </c>
+      <c r="E103" s="26">
+        <f t="shared" si="3"/>
+        <v>25.118483412322274</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A33:C56">
-    <sortCondition descending="1" ref="C33:C56"/>
+  <sortState ref="A33:D56">
+    <sortCondition descending="1" ref="D33:D56"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A64:F64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
